--- a/src/test/java/com/example/panorbit_qa/Testdata/Testdata.xlsx
+++ b/src/test/java/com/example/panorbit_qa/Testdata/Testdata.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20398"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejaskumar.macwan\IdeaProjects\Panorbit_QA\src\test\java\com\example\panorbit_qa\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0149EE44-3002-407E-8D72-7DFA0E6198BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5E60D4-3FF0-468C-BDE8-75D66FDD1E6C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10530" xr2:uid="{82D7DB16-0288-4202-B249-A112853F3125}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t xml:space="preserve">Email </t>
   </si>
@@ -58,7 +58,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,10 +454,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.6328125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.6328125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.81640625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.26953125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -483,6 +484,9 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -494,13 +498,16 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0ED30F15-2B50-4EA1-892D-9FC6990F99F8}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{73C0461E-6E49-4C26-91F2-89A2ACB5445A}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{58554711-F11B-4C62-A12E-B9B8723532BF}"/>
-    <hyperlink ref="B3" r:id="rId4" display="TEjavac@14" xr:uid="{940AE650-2A80-464D-A0ED-52F968506E67}"/>
+    <hyperlink ref="A2" r:id="rId25" xr:uid="{0ED30F15-2B50-4EA1-892D-9FC6990F99F8}"/>
+    <hyperlink ref="B2" r:id="rId26" xr:uid="{73C0461E-6E49-4C26-91F2-89A2ACB5445A}"/>
+    <hyperlink ref="A3" r:id="rId27" xr:uid="{58554711-F11B-4C62-A12E-B9B8723532BF}"/>
+    <hyperlink ref="B3" r:id="rId28" display="TEjavac@14" xr:uid="{940AE650-2A80-464D-A0ED-52F968506E67}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
